--- a/newman/excel/StatisticsToolsRespondusNew.xlsx
+++ b/newman/excel/StatisticsToolsRespondusNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EF21A3-1CF0-4659-9745-8E6C847F4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA5AD3-5D25-4483-A8ED-8C78583F0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tUKASPPaeggjveXVhoXjI84zB7d9adI+z2YD9isDLGv5/GdnWmV7pPuyP0Xjzdyb8cPnzaY5pPocFoudybRfPw==" workbookSaltValue="V6T/GNF5TcReyz0qSaV16g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3438,7 +3438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5056,7 +5056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6131,7 +6131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8537,7 +8537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9496,7 +9496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10678,7 +10678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11413,7 +11413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11534,7 +11534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11647,7 +11647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11843,7 +11843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12203,7 +12203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/newman/excel/StatisticsToolsRespondusNew.xlsx
+++ b/newman/excel/StatisticsToolsRespondusNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBA5AD3-5D25-4483-A8ED-8C78583F0C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B1B646-EE77-4D88-994C-9DD1EE929089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tUKASPPaeggjveXVhoXjI84zB7d9adI+z2YD9isDLGv5/GdnWmV7pPuyP0Xjzdyb8cPnzaY5pPocFoudybRfPw==" workbookSaltValue="V6T/GNF5TcReyz0qSaV16g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3438,7 +3438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5056,7 +5056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S102"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6131,7 +6131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6183,8 +6183,8 @@
         <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),MAX(A1:A2)+1,"")</f>
         <v/>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="66" t="str">
         <f>IF(ISNUMBER(A3),B3-C3,"")</f>
         <v/>
@@ -6209,8 +6209,8 @@
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),MAX(A1:A3)+1,"")</f>
         <v/>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="66" t="str">
         <f t="shared" ref="D4:D67" si="0">IF(ISNUMBER(A4),B4-C4,"")</f>
         <v/>
@@ -6245,8 +6245,8 @@
         <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),MAX(A1:A4)+1,"")</f>
         <v/>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6279,8 +6279,8 @@
         <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),MAX(A1:A5)+1,"")</f>
         <v/>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6315,8 +6315,8 @@
         <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),MAX(A1:A6)+1,"")</f>
         <v/>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6339,8 +6339,8 @@
         <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),MAX(A1:A7)+1,"")</f>
         <v/>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6370,8 +6370,8 @@
         <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),MAX(A1:A8)+1,"")</f>
         <v/>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6406,8 +6406,8 @@
         <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),MAX(A1:A9)+1,"")</f>
         <v/>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6429,8 +6429,8 @@
         <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),MAX(A1:A10)+1,"")</f>
         <v/>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6453,8 +6453,8 @@
         <f>IF(AND(ISNUMBER(B12),ISNUMBER(C12)),MAX(A1:A11)+1,"")</f>
         <v/>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6477,8 +6477,8 @@
         <f>IF(AND(ISNUMBER(B13),ISNUMBER(C13)),MAX(A1:A12)+1,"")</f>
         <v/>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6500,8 +6500,8 @@
         <f>IF(AND(ISNUMBER(B14),ISNUMBER(C14)),MAX(A1:A13)+1,"")</f>
         <v/>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6523,8 +6523,8 @@
         <f>IF(AND(ISNUMBER(B15),ISNUMBER(C15)),MAX(A1:A14)+1,"")</f>
         <v/>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6546,8 +6546,8 @@
         <f>IF(AND(ISNUMBER(B16),ISNUMBER(C16)),MAX(A1:A15)+1,"")</f>
         <v/>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6569,8 +6569,8 @@
         <f>IF(AND(ISNUMBER(B17),ISNUMBER(C17)),MAX(A1:A16)+1,"")</f>
         <v/>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6592,8 +6592,8 @@
         <f>IF(AND(ISNUMBER(B18),ISNUMBER(C18)),MAX(A1:A17)+1,"")</f>
         <v/>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6615,8 +6615,8 @@
         <f>IF(AND(ISNUMBER(B19),ISNUMBER(C19)),MAX(A1:A18)+1,"")</f>
         <v/>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6638,8 +6638,8 @@
         <f>IF(AND(ISNUMBER(B20),ISNUMBER(C20)),MAX(A1:A19)+1,"")</f>
         <v/>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6661,8 +6661,8 @@
         <f>IF(AND(ISNUMBER(B21),ISNUMBER(C21)),MAX(A1:A20)+1,"")</f>
         <v/>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6684,8 +6684,8 @@
         <f>IF(AND(ISNUMBER(B22),ISNUMBER(C22)),MAX(A1:A21)+1,"")</f>
         <v/>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6707,8 +6707,8 @@
         <f>IF(AND(ISNUMBER(B23),ISNUMBER(C23)),MAX(A1:A22)+1,"")</f>
         <v/>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6730,8 +6730,8 @@
         <f>IF(AND(ISNUMBER(B24),ISNUMBER(C24)),MAX(A1:A23)+1,"")</f>
         <v/>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6753,8 +6753,8 @@
         <f>IF(AND(ISNUMBER(B25),ISNUMBER(C25)),MAX(A1:A24)+1,"")</f>
         <v/>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6776,8 +6776,8 @@
         <f>IF(AND(ISNUMBER(B26),ISNUMBER(C26)),MAX(A1:A25)+1,"")</f>
         <v/>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6799,8 +6799,8 @@
         <f>IF(AND(ISNUMBER(B27),ISNUMBER(C27)),MAX(A1:A26)+1,"")</f>
         <v/>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6822,8 +6822,8 @@
         <f>IF(AND(ISNUMBER(B28),ISNUMBER(C28)),MAX(A1:A27)+1,"")</f>
         <v/>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6845,8 +6845,8 @@
         <f>IF(AND(ISNUMBER(B29),ISNUMBER(C29)),MAX(A1:A28)+1,"")</f>
         <v/>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
       <c r="D29" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6868,8 +6868,8 @@
         <f>IF(AND(ISNUMBER(B30),ISNUMBER(C30)),MAX(A1:A29)+1,"")</f>
         <v/>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
       <c r="D30" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6891,8 +6891,8 @@
         <f>IF(AND(ISNUMBER(B31),ISNUMBER(C31)),MAX(A1:A30)+1,"")</f>
         <v/>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
       <c r="D31" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6914,8 +6914,8 @@
         <f>IF(AND(ISNUMBER(B32),ISNUMBER(C32)),MAX(A1:A31)+1,"")</f>
         <v/>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6937,8 +6937,8 @@
         <f>IF(AND(ISNUMBER(B33),ISNUMBER(C33)),MAX(A1:A32)+1,"")</f>
         <v/>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6960,8 +6960,8 @@
         <f>IF(AND(ISNUMBER(B34),ISNUMBER(C34)),MAX(A1:A33)+1,"")</f>
         <v/>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6983,8 +6983,8 @@
         <f>IF(AND(ISNUMBER(B35),ISNUMBER(C35)),MAX(A1:A34)+1,"")</f>
         <v/>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7006,8 +7006,8 @@
         <f>IF(AND(ISNUMBER(B36),ISNUMBER(C36)),MAX(A1:A35)+1,"")</f>
         <v/>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7029,8 +7029,8 @@
         <f>IF(AND(ISNUMBER(B37),ISNUMBER(C37)),MAX(A1:A36)+1,"")</f>
         <v/>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7052,8 +7052,8 @@
         <f>IF(AND(ISNUMBER(B38),ISNUMBER(C38)),MAX(A1:A37)+1,"")</f>
         <v/>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7075,8 +7075,8 @@
         <f>IF(AND(ISNUMBER(B39),ISNUMBER(C39)),MAX(A1:A38)+1,"")</f>
         <v/>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7098,8 +7098,8 @@
         <f>IF(AND(ISNUMBER(B40),ISNUMBER(C40)),MAX(A1:A39)+1,"")</f>
         <v/>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
       <c r="D40" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7121,8 +7121,8 @@
         <f>IF(AND(ISNUMBER(B41),ISNUMBER(C41)),MAX(A1:A40)+1,"")</f>
         <v/>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7144,8 +7144,8 @@
         <f>IF(AND(ISNUMBER(B42),ISNUMBER(C42)),MAX(A1:A41)+1,"")</f>
         <v/>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
       <c r="D42" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7167,8 +7167,8 @@
         <f>IF(AND(ISNUMBER(B43),ISNUMBER(C43)),MAX(A1:A42)+1,"")</f>
         <v/>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7190,8 +7190,8 @@
         <f>IF(AND(ISNUMBER(B44),ISNUMBER(C44)),MAX(A1:A43)+1,"")</f>
         <v/>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7213,8 +7213,8 @@
         <f>IF(AND(ISNUMBER(B45),ISNUMBER(C45)),MAX(A1:A44)+1,"")</f>
         <v/>
       </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7236,8 +7236,8 @@
         <f>IF(AND(ISNUMBER(B46),ISNUMBER(C46)),MAX(A1:A45)+1,"")</f>
         <v/>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
       <c r="D46" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7259,8 +7259,8 @@
         <f>IF(AND(ISNUMBER(B47),ISNUMBER(C47)),MAX(A1:A46)+1,"")</f>
         <v/>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7282,8 +7282,8 @@
         <f>IF(AND(ISNUMBER(B48),ISNUMBER(C48)),MAX(A1:A47)+1,"")</f>
         <v/>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7305,8 +7305,8 @@
         <f>IF(AND(ISNUMBER(B49),ISNUMBER(C49)),MAX(A1:A48)+1,"")</f>
         <v/>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7328,8 +7328,8 @@
         <f>IF(AND(ISNUMBER(B50),ISNUMBER(C50)),MAX(A1:A49)+1,"")</f>
         <v/>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7351,8 +7351,8 @@
         <f>IF(AND(ISNUMBER(B51),ISNUMBER(C51)),MAX(A1:A50)+1,"")</f>
         <v/>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7374,8 +7374,8 @@
         <f>IF(AND(ISNUMBER(B52),ISNUMBER(C52)),MAX(A1:A51)+1,"")</f>
         <v/>
       </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
       <c r="D52" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7397,8 +7397,8 @@
         <f>IF(AND(ISNUMBER(B53),ISNUMBER(C53)),MAX(A1:A52)+1,"")</f>
         <v/>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
       <c r="D53" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7420,8 +7420,8 @@
         <f>IF(AND(ISNUMBER(B54),ISNUMBER(C54)),MAX(A1:A53)+1,"")</f>
         <v/>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7443,8 +7443,8 @@
         <f>IF(AND(ISNUMBER(B55),ISNUMBER(C55)),MAX(A1:A54)+1,"")</f>
         <v/>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7466,8 +7466,8 @@
         <f>IF(AND(ISNUMBER(B56),ISNUMBER(C56)),MAX(A1:A55)+1,"")</f>
         <v/>
       </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7489,8 +7489,8 @@
         <f>IF(AND(ISNUMBER(B57),ISNUMBER(C57)),MAX(A1:A56)+1,"")</f>
         <v/>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7512,8 +7512,8 @@
         <f>IF(AND(ISNUMBER(B58),ISNUMBER(C58)),MAX(A1:A57)+1,"")</f>
         <v/>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
       <c r="D58" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7535,8 +7535,8 @@
         <f>IF(AND(ISNUMBER(B59),ISNUMBER(C59)),MAX(A1:A58)+1,"")</f>
         <v/>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7558,8 +7558,8 @@
         <f>IF(AND(ISNUMBER(B60),ISNUMBER(C60)),MAX(A1:A59)+1,"")</f>
         <v/>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
       <c r="D60" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7581,8 +7581,8 @@
         <f>IF(AND(ISNUMBER(B61),ISNUMBER(C61)),MAX(A1:A60)+1,"")</f>
         <v/>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7604,8 +7604,8 @@
         <f>IF(AND(ISNUMBER(B62),ISNUMBER(C62)),MAX(A1:A61)+1,"")</f>
         <v/>
       </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7627,8 +7627,8 @@
         <f>IF(AND(ISNUMBER(B63),ISNUMBER(C63)),MAX(A1:A62)+1,"")</f>
         <v/>
       </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
       <c r="D63" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7650,8 +7650,8 @@
         <f>IF(AND(ISNUMBER(B64),ISNUMBER(C64)),MAX(A1:A63)+1,"")</f>
         <v/>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
       <c r="D64" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7673,8 +7673,8 @@
         <f>IF(AND(ISNUMBER(B65),ISNUMBER(C65)),MAX(A1:A64)+1,"")</f>
         <v/>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
       <c r="D65" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7692,8 +7692,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
       <c r="D66" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7711,8 +7711,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
       <c r="D67" s="66" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7730,8 +7730,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="66" t="str">
         <f t="shared" ref="D68:D102" si="3">IF(ISNUMBER(A68),B68-C68,"")</f>
         <v/>
@@ -7749,8 +7749,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7772,8 +7772,8 @@
         <f>IF(AND(ISNUMBER(B70),ISNUMBER(C70)),MAX(A1:A69)+1,"")</f>
         <v/>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
       <c r="D70" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7795,8 +7795,8 @@
         <f>IF(AND(ISNUMBER(B71),ISNUMBER(C71)),MAX(A1:A70)+1,"")</f>
         <v/>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
       <c r="D71" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7818,8 +7818,8 @@
         <f>IF(AND(ISNUMBER(B72),ISNUMBER(C72)),MAX(A1:A71)+1,"")</f>
         <v/>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="63"/>
       <c r="D72" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7841,8 +7841,8 @@
         <f>IF(AND(ISNUMBER(B73),ISNUMBER(C73)),MAX(A1:A72)+1,"")</f>
         <v/>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
       <c r="D73" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7864,8 +7864,8 @@
         <f>IF(AND(ISNUMBER(B74),ISNUMBER(C74)),MAX(A1:A73)+1,"")</f>
         <v/>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="63"/>
       <c r="D74" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7887,8 +7887,8 @@
         <f>IF(AND(ISNUMBER(B75),ISNUMBER(C75)),MAX(A1:A74)+1,"")</f>
         <v/>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7910,8 +7910,8 @@
         <f>IF(AND(ISNUMBER(B76),ISNUMBER(C76)),MAX(A1:A75)+1,"")</f>
         <v/>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7933,8 +7933,8 @@
         <f>IF(AND(ISNUMBER(B77),ISNUMBER(C77)),MAX(A1:A76)+1,"")</f>
         <v/>
       </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
       <c r="D77" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7956,8 +7956,8 @@
         <f>IF(AND(ISNUMBER(B78),ISNUMBER(C78)),MAX(A1:A77)+1,"")</f>
         <v/>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
       <c r="D78" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7979,8 +7979,8 @@
         <f>IF(AND(ISNUMBER(B79),ISNUMBER(C79)),MAX(A1:A78)+1,"")</f>
         <v/>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
       <c r="D79" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8002,8 +8002,8 @@
         <f>IF(AND(ISNUMBER(B80),ISNUMBER(C80)),MAX(A1:A79)+1,"")</f>
         <v/>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8025,8 +8025,8 @@
         <f>IF(AND(ISNUMBER(B81),ISNUMBER(C81)),MAX(A1:A80)+1,"")</f>
         <v/>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
       <c r="D81" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8048,8 +8048,8 @@
         <f>IF(AND(ISNUMBER(B82),ISNUMBER(C82)),MAX(A1:A81)+1,"")</f>
         <v/>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
       <c r="D82" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8071,8 +8071,8 @@
         <f>IF(AND(ISNUMBER(B83),ISNUMBER(C83)),MAX(A1:A82)+1,"")</f>
         <v/>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8094,8 +8094,8 @@
         <f>IF(AND(ISNUMBER(B84),ISNUMBER(C84)),MAX(A1:A83)+1,"")</f>
         <v/>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
       <c r="D84" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8117,8 +8117,8 @@
         <f>IF(AND(ISNUMBER(B85),ISNUMBER(C85)),MAX(A1:A84)+1,"")</f>
         <v/>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
       <c r="D85" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8140,8 +8140,8 @@
         <f>IF(AND(ISNUMBER(B86),ISNUMBER(C86)),MAX(A1:A85)+1,"")</f>
         <v/>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
       <c r="D86" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8163,8 +8163,8 @@
         <f>IF(AND(ISNUMBER(B87),ISNUMBER(C87)),MAX(A1:A86)+1,"")</f>
         <v/>
       </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
       <c r="D87" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8186,8 +8186,8 @@
         <f>IF(AND(ISNUMBER(B88),ISNUMBER(C88)),MAX(A1:A87)+1,"")</f>
         <v/>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
       <c r="D88" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8209,8 +8209,8 @@
         <f>IF(AND(ISNUMBER(B89),ISNUMBER(C89)),MAX(A1:A88)+1,"")</f>
         <v/>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="63"/>
       <c r="D89" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8232,8 +8232,8 @@
         <f>IF(AND(ISNUMBER(B90),ISNUMBER(C90)),MAX(A1:A89)+1,"")</f>
         <v/>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8255,8 +8255,8 @@
         <f>IF(AND(ISNUMBER(B91),ISNUMBER(C91)),MAX(A1:A90)+1,"")</f>
         <v/>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
       <c r="D91" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8278,8 +8278,8 @@
         <f>IF(AND(ISNUMBER(B92),ISNUMBER(C92)),MAX(A1:A91)+1,"")</f>
         <v/>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
       <c r="D92" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8301,8 +8301,8 @@
         <f>IF(AND(ISNUMBER(B93),ISNUMBER(C93)),MAX(A1:A92)+1,"")</f>
         <v/>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
       <c r="D93" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8324,8 +8324,8 @@
         <f>IF(AND(ISNUMBER(B94),ISNUMBER(C94)),MAX(A1:A93)+1,"")</f>
         <v/>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
       <c r="D94" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8347,8 +8347,8 @@
         <f>IF(AND(ISNUMBER(B95),ISNUMBER(C95)),MAX(A1:A94)+1,"")</f>
         <v/>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
       <c r="D95" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8370,8 +8370,8 @@
         <f>IF(AND(ISNUMBER(B96),ISNUMBER(C96)),MAX(A1:A95)+1,"")</f>
         <v/>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
       <c r="D96" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8393,8 +8393,8 @@
         <f>IF(AND(ISNUMBER(B97),ISNUMBER(C97)),MAX(A1:A96)+1,"")</f>
         <v/>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="63"/>
       <c r="D97" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8416,8 +8416,8 @@
         <f>IF(AND(ISNUMBER(B98),ISNUMBER(C98)),MAX(A1:A97)+1,"")</f>
         <v/>
       </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="63"/>
       <c r="D98" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8439,8 +8439,8 @@
         <f>IF(AND(ISNUMBER(B99),ISNUMBER(C99)),MAX(A1:A98)+1,"")</f>
         <v/>
       </c>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
       <c r="D99" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8462,8 +8462,8 @@
         <f>IF(AND(ISNUMBER(B100),ISNUMBER(C100)),MAX(A1:A99)+1,"")</f>
         <v/>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
       <c r="D100" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8485,8 +8485,8 @@
         <f>IF(AND(ISNUMBER(B101),ISNUMBER(C101)),MAX(A1:A100)+1,"")</f>
         <v/>
       </c>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8508,8 +8508,8 @@
         <f>IF(AND(ISNUMBER(B102),ISNUMBER(C102)),MAX(A1:A101)+1,"")</f>
         <v/>
       </c>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
       <c r="D102" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8527,7 +8527,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9X8PzvaQV8htj+ytozK20Q6axqTYa2jdqVtvx3aHo3gGSqBom7Zee8EV9C0nLmYcCmnoX4Am5GinCbvSj27c3A==" saltValue="y/JVuP2qtHV6NSlbGueubQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k7qS3gFgG9/zvPsdPIIZ3EnoGsh5UYgfXSW+W4q9ShTqHNh/mgdf0Yu8d/TROo6POD1bLEArTa4w3/z9ZNrWOA==" saltValue="bE+qLax03X2ftc6M9XC10Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8537,7 +8537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y115"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9496,7 +9496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W102"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10678,7 +10678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11413,7 +11413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11534,7 +11534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11647,7 +11647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11843,7 +11843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12203,7 +12203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
